--- a/Lab2/Part2/DriverCircuitData.xlsx
+++ b/Lab2/Part2/DriverCircuitData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="18660" yWindow="780" windowWidth="27580" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,48 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Input Voltage (V)</t>
+  </si>
+  <si>
+    <t>Magnet Current (A)</t>
+  </si>
+  <si>
+    <t>Expected A-&gt;V</t>
+  </si>
+  <si>
+    <t>Expected (A)</t>
+  </si>
+  <si>
+    <t>Error (%)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,18 +82,303 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Magnet Current (A)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.298552344130636"/>
+                  <c:y val="-0.114479817178025"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.05</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.203</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.248</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.292</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.311</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.32</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.329</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.338</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.348</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.357</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.366</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.384</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2138088664"/>
+        <c:axId val="-2136805576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2138088664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2136805576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2136805576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138088664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,13 +703,396 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>4.233E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <f>-A3*$H$2</f>
+        <v>0</v>
+      </c>
+      <c r="D3" t="e">
+        <f>(B3-C3)/C3</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="C4">
+        <f>-A4*$H$2</f>
+        <v>-2.1165E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D24" si="0">(B4-C4)/C4</f>
+        <v>2.3545948499881875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-0.159</v>
+      </c>
+      <c r="C5">
+        <f>-A5*$H$2</f>
+        <v>-4.233E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>2.7562012756909993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>1.25</v>
+      </c>
+      <c r="B6">
+        <v>-0.20300000000000001</v>
+      </c>
+      <c r="C6">
+        <f>-A6*$H$2</f>
+        <v>-5.2912500000000001E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>2.8365225608315616</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>1.5</v>
+      </c>
+      <c r="B7">
+        <v>-0.248</v>
+      </c>
+      <c r="C7">
+        <f>-A7*$H$2</f>
+        <v>-6.3494999999999996E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>2.905819355854792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>1.75</v>
+      </c>
+      <c r="B8">
+        <v>-0.29199999999999998</v>
+      </c>
+      <c r="C8">
+        <f>-A8*$H$2</f>
+        <v>-7.4077500000000004E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.9418176909317939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>1.8</v>
+      </c>
+      <c r="B9">
+        <v>-0.30199999999999999</v>
+      </c>
+      <c r="C9">
+        <f>-A9*$H$2</f>
+        <v>-7.6193999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>2.9635666850408171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>1.85</v>
+      </c>
+      <c r="B10">
+        <v>-0.311</v>
+      </c>
+      <c r="C10">
+        <f>-A10*$H$2</f>
+        <v>-7.8310500000000005E-2</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>2.971370378174063</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>1.9</v>
+      </c>
+      <c r="B11">
+        <v>-0.32</v>
+      </c>
+      <c r="C11">
+        <f>-A11*$H$2</f>
+        <v>-8.0426999999999998E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.9787633506160867</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>1.95</v>
+      </c>
+      <c r="B12">
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="C12">
+        <f>-A12*$H$2</f>
+        <v>-8.2543499999999992E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>2.9857771962662119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="C13">
+        <f>-A13*$H$2</f>
+        <v>-8.4659999999999999E-2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>2.9924403496338297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="B14">
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="C14">
+        <f>-A14*$H$2</f>
+        <v>-8.6776499999999993E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>3.0103023283953609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>2.1</v>
+      </c>
+      <c r="B15">
+        <v>-0.35699999999999998</v>
+      </c>
+      <c r="C15">
+        <f>-A15*$H$2</f>
+        <v>-8.8893E-2</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>3.0160642570281122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2.15</v>
+      </c>
+      <c r="B16">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="C16">
+        <f>-A16*$H$2</f>
+        <v>-9.1009499999999993E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>3.0215581889802716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B17">
+        <v>-0.375</v>
+      </c>
+      <c r="C17">
+        <f>-A17*$H$2</f>
+        <v>-9.3126E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3.0268023967527866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>2.25</v>
+      </c>
+      <c r="B18">
+        <v>-0.38400000000000001</v>
+      </c>
+      <c r="C18">
+        <f>-A18*$H$2</f>
+        <v>-9.5242499999999994E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3.0318135286243013</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B19">
+        <v>-0.39400000000000002</v>
+      </c>
+      <c r="C19">
+        <f>-A19*$H$2</f>
+        <v>-9.7358999999999987E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>3.0468780492815259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2.4</v>
+      </c>
+      <c r="B20">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="C20">
+        <f>-A20*$H$2</f>
+        <v>-0.101592</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>2.9471611937947868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="B21">
+        <v>-0.4</v>
+      </c>
+      <c r="C21">
+        <f>-A21*$H$2</f>
+        <v>-0.10370850000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>2.8569644725360024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2.5</v>
+      </c>
+      <c r="B22">
+        <v>-0.40400000000000003</v>
+      </c>
+      <c r="C22">
+        <f>-A22*$H$2</f>
+        <v>-0.105825</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>2.8176234349161353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2.6</v>
+      </c>
+      <c r="B23">
+        <v>-0.4</v>
+      </c>
+      <c r="C23">
+        <f>-A23*$H$2</f>
+        <v>-0.110058</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>2.6344472914281565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>2.7</v>
+      </c>
+      <c r="B24">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="C24">
+        <f>-A24*$H$2</f>
+        <v>-0.114291</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>2.4910885371551563</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
